--- a/src/api/test.xlsx
+++ b/src/api/test.xlsx
@@ -495,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -643,6 +643,7 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
